--- a/data/TC1_CreateId.xlsx
+++ b/data/TC1_CreateId.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>firstName</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Favorite pet's name</t>
   </si>
   <si>
-    <t>Gimmi</t>
-  </si>
-  <si>
     <t>01/01/1990</t>
   </si>
   <si>
@@ -84,16 +81,22 @@
     <t>California</t>
   </si>
   <si>
-    <t>Bhuvi</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>c57502@salliemae.com</t>
-  </si>
-  <si>
-    <t>Dini</t>
+    <t>beneFirstName</t>
+  </si>
+  <si>
+    <t>kavi</t>
+  </si>
+  <si>
+    <t>beneLastName</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Jim</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,9 +482,11 @@
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +520,17 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -533,66 +547,39 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
